--- a/LPG_Assessment_Test_Scenarios.xlsx
+++ b/LPG_Assessment_Test_Scenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karpagam Karthick\Desktop\Sudha\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karpagam Karthick\github\LPG_Technology_Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1A6FADC7-A5F7-40BC-8101-6F095AE9E988}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C02D1B5-F91F-425A-885B-6CD0816AEA36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="93">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -280,11 +280,68 @@
   <si>
     <t>Review your page should be displayed to the user</t>
   </si>
+  <si>
+    <t>TC_AllInclusive_Page_07</t>
+  </si>
+  <si>
+    <t>TC_AllInclusive_Page_08</t>
+  </si>
+  <si>
+    <t>Verify that the user is able to signup with the valid email address</t>
+  </si>
+  <si>
+    <t>valid email address</t>
+  </si>
+  <si>
+    <t>signup pop should be displayed to the user at the right hand side bottom of the screen</t>
+  </si>
+  <si>
+    <t>Enter the Email address</t>
+  </si>
+  <si>
+    <t>User should able to enter the email address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select the privacy policy checkbox </t>
+  </si>
+  <si>
+    <t>User should able to select the checkbox</t>
+  </si>
+  <si>
+    <t>click on signup now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanks Popup should be displayed to the user and user should receive an email </t>
+  </si>
+  <si>
+    <t>TC_AllInclusive_Page_09</t>
+  </si>
+  <si>
+    <t>Verify that the user is not able to signup with the invalid email address</t>
+  </si>
+  <si>
+    <t>invalid email address -ex:test</t>
+  </si>
+  <si>
+    <t>Enter the invalid Email address</t>
+  </si>
+  <si>
+    <t>Error Message should be displayed underneath  the email field and privacy policy field</t>
+  </si>
+  <si>
+    <t>Error Message should be displayed underneath  the email field alone</t>
+  </si>
+  <si>
+    <t>Enter the valid email</t>
+  </si>
+  <si>
+    <t>Error Message should be displayed underneath  the privacy policy field alone</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -379,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -389,34 +446,37 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -732,11 +792,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32:I37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -781,335 +841,335 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="6">
+      <c r="D2" s="15"/>
+      <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="10"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="216" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="6">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="4">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="11"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="6">
+      <c r="D4" s="10"/>
+      <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="6">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="4">
         <v>2</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="6">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="4">
         <v>3</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="6">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="4">
         <v>4</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="6">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="4">
         <v>5</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="6">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="4">
         <v>6</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="6">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="4">
         <v>7</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:10" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="6">
+      <c r="D11" s="10"/>
+      <c r="E11" s="4">
         <v>1</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:10" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="6">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="4">
         <v>2</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="6">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="4">
         <v>3</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="6">
+      <c r="D14" s="10"/>
+      <c r="E14" s="4">
         <v>1</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="6">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="4">
         <v>2</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="6">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="4">
         <v>3</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="6">
+      <c r="D17" s="10"/>
+      <c r="E17" s="4">
         <v>1</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="6">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="4">
         <v>2</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H18" s="12"/>
@@ -1117,17 +1177,17 @@
       <c r="J18" s="12"/>
     </row>
     <row r="19" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="6">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="4">
         <v>3</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="4" t="s">
         <v>41</v>
       </c>
       <c r="H19" s="12"/>
@@ -1135,215 +1195,215 @@
       <c r="J19" s="12"/>
     </row>
     <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="6">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="4">
         <v>4</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="6">
+      <c r="D21" s="10"/>
+      <c r="E21" s="4">
         <v>1</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
     </row>
     <row r="22" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="6">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="4">
         <v>2</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="6">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="4">
         <v>3</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
     </row>
     <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="6">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="4">
         <v>4</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="6">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="4">
         <v>5</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
     </row>
     <row r="26" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="6">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="4">
         <v>6</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="6">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="4">
         <v>5</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
     </row>
     <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="6">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="4">
         <v>7</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
     </row>
     <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="6">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="4">
         <v>8</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
     </row>
     <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="6">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="4">
         <v>9</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
     </row>
     <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="13">
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="7">
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -1352,143 +1412,411 @@
       <c r="G31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
     </row>
     <row r="32" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="A32" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="6">
+      <c r="D32" s="10"/>
+      <c r="E32" s="4">
         <v>1</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
     </row>
     <row r="33" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="6">
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="4">
         <v>2</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
     </row>
     <row r="34" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="6">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="4">
         <v>3</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
     </row>
     <row r="35" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="6">
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="4">
         <v>4</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
     </row>
     <row r="36" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="6">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="4">
         <v>5</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
     </row>
     <row r="37" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="14">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="8">
         <v>6</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="F37" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G37" s="14" t="s">
+      <c r="G37" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+    </row>
+    <row r="38" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+    </row>
+    <row r="39" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="5">
+        <v>2</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+    </row>
+    <row r="40" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="5">
+        <v>3</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+    </row>
+    <row r="41" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="5">
+        <v>4</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+    </row>
+    <row r="42" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="9"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="5">
+        <v>5</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+    </row>
+    <row r="43" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+    </row>
+    <row r="44" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="9"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="5">
+        <v>2</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+    </row>
+    <row r="45" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="9"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="5">
+        <v>3</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+    </row>
+    <row r="46" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="9"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="5">
+        <v>4</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+    </row>
+    <row r="47" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="9"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="5">
+        <v>5</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+    </row>
+    <row r="48" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="9"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="8">
+        <v>6</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+    </row>
+    <row r="49" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="5">
+        <v>7</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+    </row>
+    <row r="50" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="9"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="5">
+        <v>8</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="C32:C37"/>
-    <mergeCell ref="D32:D37"/>
-    <mergeCell ref="H32:H37"/>
-    <mergeCell ref="I32:I37"/>
-    <mergeCell ref="J32:J37"/>
-    <mergeCell ref="C21:C31"/>
-    <mergeCell ref="D21:D31"/>
-    <mergeCell ref="H21:H31"/>
-    <mergeCell ref="I21:I31"/>
-    <mergeCell ref="J21:J31"/>
-    <mergeCell ref="A21:A31"/>
-    <mergeCell ref="B21:B31"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="I17:I20"/>
+  <mergeCells count="63">
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="C43:C50"/>
+    <mergeCell ref="D43:D50"/>
+    <mergeCell ref="H43:H50"/>
+    <mergeCell ref="I43:I50"/>
+    <mergeCell ref="J43:J50"/>
+    <mergeCell ref="I38:I42"/>
+    <mergeCell ref="J38:J42"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="H38:H42"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="D4:D10"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="H4:H10"/>
+    <mergeCell ref="I4:I10"/>
+    <mergeCell ref="J4:J10"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
     <mergeCell ref="J17:J20"/>
     <mergeCell ref="J14:J16"/>
     <mergeCell ref="D17:D19"/>
@@ -1500,27 +1828,23 @@
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="H14:H16"/>
     <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="H4:H10"/>
-    <mergeCell ref="I4:I10"/>
-    <mergeCell ref="J4:J10"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="A4:A10"/>
-    <mergeCell ref="D4:D10"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A21:A31"/>
+    <mergeCell ref="B21:B31"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="I17:I20"/>
+    <mergeCell ref="I32:I37"/>
+    <mergeCell ref="J32:J37"/>
+    <mergeCell ref="C21:C31"/>
+    <mergeCell ref="D21:D31"/>
+    <mergeCell ref="H21:H31"/>
+    <mergeCell ref="I21:I31"/>
+    <mergeCell ref="J21:J31"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="D32:D37"/>
+    <mergeCell ref="H32:H37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
